--- a/biology/Botanique/Olea_capensis/Olea_capensis.xlsx
+++ b/biology/Botanique/Olea_capensis/Olea_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea capensis ou Olivier du Cap est un arbre/arbuste d'Afrique appartenant à la famille des Oleaceae.
-Olea capensis est connu d'après un nombre varié de noms communs incluant[1]:
+Olea capensis est connu d'après un nombre varié de noms communs incluant:
 Afrikaans : ysterhout,
 Anglais : black ironwood, East African olive, Elgon olive, ironwood, ironwood olive,
 Swahili : loliondo, mushargi
@@ -518,26 +530,167 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-L'Olivier du Cap est un buisson touffu ou un arbre de taille petite à moyenne, jusqu'à 30 m de hauteur, pouvant atteindre occasionnellement 40 m[1]. Les rameaux sont glabres, têtiformes.  
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'Olivier du Cap est un buisson touffu ou un arbre de taille petite à moyenne, jusqu'à 30 m de hauteur, pouvant atteindre occasionnellement 40 m. Les rameaux sont glabres, têtiformes.  
 Écorces : gris clair, devenant gris foncé et fissurée verticalement avec l'âge ; une résine noirâtre caractéristique est exsudée des blessures de l'écorce.
-Feuilles : vert pâle à vert foncé, brillantes sur la face supérieure et plus pâles en dessous ; le pétiole est souvent violacé, de 0,3 à 1,7 cm de long ; lancéolées-oblongues à presque circulaires, 3 à 10 × 1,5 à 5 cm.
-Appareil reproducteur
-Fleurs : blanches ou crème et délicatement odorantes, petites et abondamment axillaires ou en inflorescences terminales, plante bisexuée, 3 à 15 cm de long.
-Fruit : ce sont des drupes violacées quand elles sont mûres, elles sont alors succulentes. La forme est ovoïde, de 2 par 1 cm.
-Sous-espèces
-L'espèce est divisée en 3 sous-espèces[1],[2]: 
+Feuilles : vert pâle à vert foncé, brillantes sur la face supérieure et plus pâles en dessous ; le pétiole est souvent violacé, de 0,3 à 1,7 cm de long ; lancéolées-oblongues à presque circulaires, 3 à 10 × 1,5 à 5 cm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olea_capensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fleurs : blanches ou crème et délicatement odorantes, petites et abondamment axillaires ou en inflorescences terminales, plante bisexuée, 3 à 15 cm de long.
+Fruit : ce sont des drupes violacées quand elles sont mûres, elles sont alors succulentes. La forme est ovoïde, de 2 par 1 cm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_capensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce est divisée en 3 sous-espèces,: 
 Olea capensis subsp. macrocarpa : fleurs en inflorescences lâches, fruits oblongs à elliptiques. 
 Olea capensis subsp. capensis : fleurs en inflorescences serrées, feuilles très variables, apex souvent arrondi et fruits presque sphériques à elliptiques oblongs.
-Olea capensis subsp. enervis : feuilles usuellement elliptiques larges, l'apex s'effilant.
-Synonymes
-Olea capensis subsp. hochstetteri (Baker) Friis &amp; P. S. Green [= Olea capensis subsp. macrocarpa]
+Olea capensis subsp. enervis : feuilles usuellement elliptiques larges, l'apex s'effilant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_capensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Olea capensis subsp. hochstetteri (Baker) Friis &amp; P. S. Green [= Olea capensis subsp. macrocarpa]
 Olea enervis Harv. [≡ Olea capensis subsp. enervis]
 Olea hochstetteri Baker [= Olea capensis subsp. macrocarpa]
 (=) Olea laurifolia Lam.
-Olea macrocarpa C. H. Wright [≡ Olea capensis subsp. macrocarpa]
-Répartition géographique
-Afrique
+Olea macrocarpa C. H. Wright [≡ Olea capensis subsp. macrocarpa]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_capensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Afrique
 Afrique tropicale du nord-est : Éthiopie ; Somalie ; Soudan.
 Afrique tropicale de l'est : Kenya ; Tanzanie ; Ouganda.
 Afrique tropicale ouest-centrale : Burundi; Cameroun ; Rwanda ; Zaïre.
@@ -548,31 +701,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Olea_capensis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_capensis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Alimentation : Olea capensis a de nombreuses masses florales odorantes, bisexuées, produisant de gros fruits comestibles.
 Bois de charpente : Le bois de cet arbre est très dur, à grain fin et lourd, cependant difficile à travailler ; il est largement utilisé pour les travaux d'art et les objets manufacturés.
@@ -580,31 +735,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Olea_capensis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_capensis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Olea capensis » (voir la liste des auteurs).</t>
         </is>
